--- a/Results/Baseline/EoL-RIR/EoL-RIR_base_Onshore wind plants.xlsx
+++ b/Results/Baseline/EoL-RIR/EoL-RIR_base_Onshore wind plants.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RR_full" sheetId="1" r:id="rId1"/>
-    <sheet name="RR_target" sheetId="2" r:id="rId2"/>
-    <sheet name="RR_hist" sheetId="3" r:id="rId3"/>
+    <sheet name="RR_hist" sheetId="1" r:id="rId1"/>
+    <sheet name="RR_full" sheetId="2" r:id="rId2"/>
+    <sheet name="RR_target" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="7">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -30,10 +30,13 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -679,275 +682,275 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1234,274 +1237,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>8.406510074815563E-09</v>
+        <v>4.906557804660801E-11</v>
       </c>
       <c r="E4">
-        <v>6.205682676184089E-08</v>
+        <v>4.16216820381134E-10</v>
       </c>
       <c r="F4">
-        <v>5.417770000680671E-07</v>
+        <v>4.106145159652354E-09</v>
       </c>
       <c r="G4">
-        <v>2.705948638450353E-06</v>
+        <v>2.282379375608379E-08</v>
       </c>
       <c r="H4">
-        <v>1.360662549680747E-05</v>
+        <v>1.260168579921685E-07</v>
       </c>
       <c r="I4">
-        <v>6.214636128086473E-05</v>
+        <v>6.246269210473271E-07</v>
       </c>
       <c r="J4">
-        <v>0.0002661089987059138</v>
+        <v>2.873621060766039E-06</v>
       </c>
       <c r="K4">
-        <v>0.001554532604763897</v>
+        <v>1.788425024049504E-05</v>
       </c>
       <c r="L4">
-        <v>0.004453885642249653</v>
+        <v>5.42325482397343E-05</v>
       </c>
       <c r="M4">
-        <v>0.01821179268475131</v>
+        <v>0.000233883157552831</v>
       </c>
       <c r="N4">
-        <v>0.04229639615590806</v>
+        <v>0.0005748100358720474</v>
       </c>
       <c r="O4">
-        <v>0.07811092420619252</v>
+        <v>0.001143432388159776</v>
       </c>
       <c r="P4">
-        <v>0.07603180067522568</v>
+        <v>0.001261751525440256</v>
       </c>
       <c r="Q4">
-        <v>0.125299715931399</v>
+        <v>0.002605055510979647</v>
       </c>
       <c r="R4">
-        <v>0.1449747682728824</v>
+        <v>0.003996782742142963</v>
       </c>
       <c r="S4">
-        <v>0.0499281726222599</v>
+        <v>0.001353570146110726</v>
       </c>
       <c r="T4">
-        <v>0.04980288438873005</v>
+        <v>0.0007583286666218902</v>
       </c>
       <c r="U4">
-        <v>0.05257257378063854</v>
+        <v>0.0006093706714747893</v>
       </c>
       <c r="V4">
-        <v>0.05564679780684665</v>
+        <v>0.001004902997436153</v>
       </c>
       <c r="W4">
-        <v>0.05794698514034683</v>
+        <v>0.001459503937326731</v>
       </c>
       <c r="X4">
-        <v>0.06663856121585553</v>
+        <v>0.002261258084970408</v>
       </c>
       <c r="Y4">
-        <v>0.07139282848319613</v>
+        <v>0.003081894025107523</v>
       </c>
       <c r="Z4">
-        <v>0.07174617774487627</v>
+        <v>0.003630618618915182</v>
       </c>
       <c r="AA4">
-        <v>0.07082816422075827</v>
+        <v>0.004349211796697079</v>
       </c>
       <c r="AB4">
-        <v>0.07211148162326597</v>
+        <v>0.00685658619933842</v>
       </c>
       <c r="AC4">
-        <v>0.3399867008111121</v>
+        <v>0.05192619669514558</v>
       </c>
       <c r="AD4">
-        <v>0.347382089641681</v>
+        <v>0.07308127497900356</v>
       </c>
       <c r="AE4">
-        <v>0.3544722892054195</v>
+        <v>0.09273298871567756</v>
       </c>
       <c r="AF4">
-        <v>0.3501341751367784</v>
+        <v>0.08994512674097327</v>
       </c>
       <c r="AG4">
-        <v>0.3342412156357214</v>
+        <v>0.08249117202592575</v>
       </c>
       <c r="AH4">
-        <v>0.6609323949287094</v>
+        <v>0.1732392660045481</v>
       </c>
       <c r="AI4">
-        <v>0.6645807949202508</v>
+        <v>0.150328587239847</v>
       </c>
       <c r="AJ4">
-        <v>0.6864079472282388</v>
+        <v>0.1095125403106163</v>
       </c>
       <c r="AK4">
-        <v>0.7199507115478951</v>
+        <v>0.06972994653832851</v>
       </c>
       <c r="AL4">
-        <v>0.7500480439660998</v>
+        <v>0.05930565764501022</v>
       </c>
       <c r="AM4">
-        <v>0.7685999267421187</v>
+        <v>0.06282003637045092</v>
       </c>
       <c r="AN4">
-        <v>0.7789524918273694</v>
+        <v>0.06484238528619921</v>
       </c>
       <c r="AO4">
-        <v>0.7871662044893267</v>
+        <v>0.06674259102516246</v>
       </c>
       <c r="AP4">
-        <v>0.7930045848732589</v>
+        <v>0.0683473512235295</v>
       </c>
       <c r="AQ4">
-        <v>0.7947544923069917</v>
+        <v>0.06871017452981625</v>
       </c>
       <c r="AR4">
-        <v>0.7944728207415251</v>
+        <v>0.06854702742870923</v>
       </c>
       <c r="AS4">
-        <v>0.7939541430291338</v>
+        <v>0.06855635005069975</v>
       </c>
       <c r="AT4">
-        <v>0.7932150493049194</v>
+        <v>0.06868880362376371</v>
       </c>
       <c r="AU4">
-        <v>0.7922782338694172</v>
+        <v>0.06890910625623545</v>
       </c>
       <c r="AV4">
-        <v>0.7910473627557857</v>
+        <v>0.06934893280033361</v>
       </c>
       <c r="AW4">
-        <v>0.7899710356235543</v>
+        <v>0.07023282246742846</v>
       </c>
       <c r="AX4">
-        <v>0.6815395113691345</v>
+        <v>0.06221377983509513</v>
       </c>
       <c r="AY4">
-        <v>0.647774652635031</v>
+        <v>0.06272083404951194</v>
       </c>
       <c r="AZ4">
-        <v>0.5601757981715455</v>
+        <v>0.06359985511592624</v>
       </c>
       <c r="BA4">
-        <v>0.4648204943515526</v>
+        <v>0.0686192649497411</v>
       </c>
       <c r="BB4">
-        <v>0.4703807574644508</v>
+        <v>0.07737203882246202</v>
       </c>
       <c r="BC4">
-        <v>0.4548473189155029</v>
+        <v>0.07762476668578298</v>
       </c>
       <c r="BD4">
-        <v>0.419143478772732</v>
+        <v>0.07422475078149469</v>
       </c>
       <c r="BE4">
-        <v>0.3695271748348913</v>
+        <v>0.06853453428835216</v>
       </c>
       <c r="BF4">
-        <v>0.3679561872376846</v>
+        <v>0.05952018675125668</v>
       </c>
       <c r="BG4">
-        <v>0.4481132171070721</v>
+        <v>0.05322068813297531</v>
       </c>
       <c r="BH4">
-        <v>0.5190137478242025</v>
+        <v>0.0479513492533798</v>
       </c>
       <c r="BI4">
-        <v>0.5838868296651457</v>
+        <v>0.04886670956503034</v>
       </c>
       <c r="BJ4">
-        <v>0.6342565407809428</v>
+        <v>0.05284174916385006</v>
       </c>
       <c r="BK4">
-        <v>0.6709692965598618</v>
+        <v>0.05669907866594925</v>
       </c>
       <c r="BL4">
-        <v>0.7059105020302506</v>
+        <v>0.06034708656417873</v>
       </c>
       <c r="BM4">
-        <v>0.7209517960379002</v>
+        <v>0.06209262358424485</v>
       </c>
       <c r="BN4">
-        <v>0.7276645338079476</v>
+        <v>0.06286074671329288</v>
       </c>
       <c r="BO4">
-        <v>0.728833354624468</v>
+        <v>0.06301862800828881</v>
       </c>
       <c r="BP4">
-        <v>0.7275753122359809</v>
+        <v>0.06303119237631215</v>
       </c>
       <c r="BQ4">
-        <v>0.7305674775640542</v>
+        <v>0.06357146790961456</v>
       </c>
       <c r="BR4">
-        <v>0.7278505774523659</v>
+        <v>0.06383474754382874</v>
       </c>
       <c r="BS4">
-        <v>0.7246673729436197</v>
+        <v>0.06440829677490623</v>
       </c>
       <c r="BT4">
-        <v>0.7201632061133808</v>
+        <v>0.06542915946694269</v>
       </c>
       <c r="BU4">
-        <v>0.7111294295301851</v>
+        <v>0.06694827696270228</v>
       </c>
       <c r="BV4">
-        <v>0.6974776364620774</v>
+        <v>0.06978170203180685</v>
       </c>
       <c r="BW4">
-        <v>0.6629209625283399</v>
+        <v>0.07338448072227743</v>
       </c>
       <c r="BX4">
-        <v>0.6265468778499979</v>
+        <v>0.07803631161637256</v>
       </c>
       <c r="BY4">
-        <v>0.6045959892758945</v>
+        <v>0.08105198295532114</v>
       </c>
       <c r="BZ4">
-        <v>0.5918763183820528</v>
+        <v>0.08082841999134197</v>
       </c>
       <c r="CA4">
-        <v>0.5933339117656681</v>
+        <v>0.07956606826886611</v>
       </c>
       <c r="CB4">
-        <v>0.587706122127086</v>
+        <v>0.07429642594577897</v>
       </c>
       <c r="CC4">
-        <v>0.5967920811396287</v>
+        <v>0.06763565301005268</v>
       </c>
       <c r="CD4">
-        <v>0.6206948673781952</v>
+        <v>0.06177638921695108</v>
       </c>
       <c r="CE4">
-        <v>0.6512842719528297</v>
+        <v>0.05879012181400004</v>
       </c>
       <c r="CF4">
-        <v>0.690481137694903</v>
+        <v>0.05962315540672803</v>
       </c>
       <c r="CG4">
-        <v>0.7120457589802087</v>
+        <v>0.06094284644017755</v>
       </c>
       <c r="CH4">
-        <v>0.7279756885737659</v>
+        <v>0.06253622624997882</v>
       </c>
       <c r="CI4">
-        <v>0.7389239067495849</v>
+        <v>0.06379589177549068</v>
       </c>
       <c r="CJ4">
-        <v>0.7456594174187392</v>
+        <v>0.06461695159219051</v>
       </c>
       <c r="CK4">
-        <v>0.756876292735692</v>
+        <v>0.06574989666867438</v>
       </c>
       <c r="CL4">
-        <v>0.7572712082629631</v>
+        <v>0.06593161736779818</v>
       </c>
       <c r="CM4">
-        <v>0.756237489866828</v>
+        <v>0.06608055756811898</v>
       </c>
       <c r="CN4">
-        <v>0.7543945583883053</v>
+        <v>0.06634993572041854</v>
       </c>
       <c r="CO4">
-        <v>0.7519654487481965</v>
+        <v>0.06686154065133289</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2080,275 +2083,275 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,275 +2360,275 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2635,274 +2638,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4.203255031692135E-09</v>
+        <v>9.813115609321597E-11</v>
       </c>
       <c r="E4">
-        <v>3.102841331001708E-08</v>
+        <v>8.32433640762268E-10</v>
       </c>
       <c r="F4">
-        <v>2.708884985997133E-07</v>
+        <v>8.212290319304709E-09</v>
       </c>
       <c r="G4">
-        <v>1.352974308401097E-06</v>
+        <v>4.564758751216757E-08</v>
       </c>
       <c r="H4">
-        <v>6.803312656108435E-06</v>
+        <v>2.520337159843371E-07</v>
       </c>
       <c r="I4">
-        <v>3.10731799310276E-05</v>
+        <v>1.249253842094654E-06</v>
       </c>
       <c r="J4">
-        <v>0.0001330544941910613</v>
+        <v>5.747242121532079E-06</v>
       </c>
       <c r="K4">
-        <v>0.0007772662275056164</v>
+        <v>3.576850048099008E-05</v>
       </c>
       <c r="L4">
-        <v>0.00222694253961039</v>
+        <v>0.0001084650964794686</v>
       </c>
       <c r="M4">
-        <v>0.009105893972179466</v>
+        <v>0.0004677663151056618</v>
       </c>
       <c r="N4">
-        <v>0.02114819076825044</v>
+        <v>0.001149620071744095</v>
       </c>
       <c r="O4">
-        <v>0.03905544543333257</v>
+        <v>0.002286864776319552</v>
       </c>
       <c r="P4">
-        <v>0.03801588790349431</v>
+        <v>0.002523503050880512</v>
       </c>
       <c r="Q4">
-        <v>0.062649827096909</v>
+        <v>0.005210111021959293</v>
       </c>
       <c r="R4">
-        <v>0.07248734097281236</v>
+        <v>0.007993565484285927</v>
       </c>
       <c r="S4">
-        <v>0.02496408055361855</v>
+        <v>0.002707140292221453</v>
       </c>
       <c r="T4">
-        <v>0.0249014358958193</v>
+        <v>0.00151665733324378</v>
       </c>
       <c r="U4">
-        <v>0.02628627931716845</v>
+        <v>0.001218741342949579</v>
       </c>
       <c r="V4">
-        <v>0.02782338972053595</v>
+        <v>0.002009805994872305</v>
       </c>
       <c r="W4">
-        <v>0.02897348175314661</v>
+        <v>0.002919007874653462</v>
       </c>
       <c r="X4">
-        <v>0.03331926514804558</v>
+        <v>0.004522516169940816</v>
       </c>
       <c r="Y4">
-        <v>0.03569639557400794</v>
+        <v>0.006163788050215046</v>
       </c>
       <c r="Z4">
-        <v>0.03587306830099419</v>
+        <v>0.007261237237830363</v>
       </c>
       <c r="AA4">
-        <v>0.03541405995843937</v>
+        <v>0.008698423593394159</v>
       </c>
       <c r="AB4">
-        <v>0.03605571570709238</v>
+        <v>0.01371317239867684</v>
       </c>
       <c r="AC4">
-        <v>0.1699927258920477</v>
+        <v>0.1038523933902911</v>
       </c>
       <c r="AD4">
-        <v>0.173690329700487</v>
+        <v>0.1461625499580071</v>
       </c>
       <c r="AE4">
-        <v>0.1772353222305536</v>
+        <v>0.1854659774313552</v>
       </c>
       <c r="AF4">
-        <v>0.1750661705533953</v>
+        <v>0.1798902534819465</v>
       </c>
       <c r="AG4">
-        <v>0.1671195876383363</v>
+        <v>0.1649823440518515</v>
       </c>
       <c r="AH4">
-        <v>0.3304611214341913</v>
+        <v>0.3464785320090963</v>
       </c>
       <c r="AI4">
-        <v>0.3322845592007181</v>
+        <v>0.300657174479694</v>
       </c>
       <c r="AJ4">
-        <v>0.3431978296761642</v>
+        <v>0.2190250806212327</v>
       </c>
       <c r="AK4">
-        <v>0.3599696108412807</v>
+        <v>0.139459893076657</v>
       </c>
       <c r="AL4">
-        <v>0.3750190494059303</v>
+        <v>0.1186113152900204</v>
       </c>
       <c r="AM4">
-        <v>0.3842955945489375</v>
+        <v>0.1256400727409019</v>
       </c>
       <c r="AN4">
-        <v>0.3894722309441704</v>
+        <v>0.1296847705723984</v>
       </c>
       <c r="AO4">
-        <v>0.3935794978515601</v>
+        <v>0.1334851820503249</v>
       </c>
       <c r="AP4">
-        <v>0.3964990539023953</v>
+        <v>0.136694702447059</v>
       </c>
       <c r="AQ4">
-        <v>0.3973740192063442</v>
+        <v>0.1374203490596325</v>
       </c>
       <c r="AR4">
-        <v>0.3972329859443853</v>
+        <v>0.1370940548574184</v>
       </c>
       <c r="AS4">
-        <v>0.3969734493330031</v>
+        <v>0.1371127001013995</v>
       </c>
       <c r="AT4">
-        <v>0.3966037120045929</v>
+        <v>0.1373776072475275</v>
       </c>
       <c r="AU4">
-        <v>0.3961351314301603</v>
+        <v>0.137818212512471</v>
       </c>
       <c r="AV4">
-        <v>0.3955196106645948</v>
+        <v>0.1386978656006672</v>
       </c>
       <c r="AW4">
-        <v>0.394981395024364</v>
+        <v>0.1404656449348569</v>
       </c>
       <c r="AX4">
-        <v>0.3407665158773526</v>
+        <v>0.1244275596701902</v>
       </c>
       <c r="AY4">
-        <v>0.3238838275448476</v>
+        <v>0.1254416680990239</v>
       </c>
       <c r="AZ4">
-        <v>0.2800839008147381</v>
+        <v>0.1271997102318525</v>
       </c>
       <c r="BA4">
-        <v>0.2324062352713048</v>
+        <v>0.1372385298994822</v>
       </c>
       <c r="BB4">
-        <v>0.235186365727035</v>
+        <v>0.154744077644924</v>
       </c>
       <c r="BC4">
-        <v>0.2274200092002194</v>
+        <v>0.1552495333715659</v>
       </c>
       <c r="BD4">
-        <v>0.2095684316063364</v>
+        <v>0.1484495015629894</v>
       </c>
       <c r="BE4">
-        <v>0.1847606290178538</v>
+        <v>0.1370690685767043</v>
       </c>
       <c r="BF4">
-        <v>0.1839753250592762</v>
+        <v>0.1190403735025134</v>
       </c>
       <c r="BG4">
-        <v>0.2240535456242204</v>
+        <v>0.1064413762659506</v>
       </c>
       <c r="BH4">
-        <v>0.259503900394982</v>
+        <v>0.0959026985067596</v>
       </c>
       <c r="BI4">
-        <v>0.2919405785478401</v>
+        <v>0.0977334191300607</v>
       </c>
       <c r="BJ4">
-        <v>0.3171255788547153</v>
+        <v>0.1056834983277001</v>
       </c>
       <c r="BK4">
-        <v>0.3354820834443759</v>
+        <v>0.1133981573318985</v>
       </c>
       <c r="BL4">
-        <v>0.3529527216289987</v>
+        <v>0.1206941731283575</v>
       </c>
       <c r="BM4">
-        <v>0.360473425035338</v>
+        <v>0.1241852471684897</v>
       </c>
       <c r="BN4">
-        <v>0.3638297646871146</v>
+        <v>0.1257214934265858</v>
       </c>
       <c r="BO4">
-        <v>0.3644140742201087</v>
+        <v>0.1260372560165776</v>
       </c>
       <c r="BP4">
-        <v>0.3637849199846939</v>
+        <v>0.1260623847526243</v>
       </c>
       <c r="BQ4">
-        <v>0.365280820518578</v>
+        <v>0.1271429358192291</v>
       </c>
       <c r="BR4">
-        <v>0.3639222287148334</v>
+        <v>0.1276694950876575</v>
       </c>
       <c r="BS4">
-        <v>0.3623304919869895</v>
+        <v>0.1288165935498125</v>
       </c>
       <c r="BT4">
-        <v>0.3600782656430624</v>
+        <v>0.1308583189338854</v>
       </c>
       <c r="BU4">
-        <v>0.3555611596310114</v>
+        <v>0.1338965539254046</v>
       </c>
       <c r="BV4">
-        <v>0.3487347518269229</v>
+        <v>0.1395634040636137</v>
       </c>
       <c r="BW4">
-        <v>0.3314557424322154</v>
+        <v>0.1467689614445549</v>
       </c>
       <c r="BX4">
-        <v>0.3132681502683252</v>
+        <v>0.1560726232327452</v>
       </c>
       <c r="BY4">
-        <v>0.3022925143703069</v>
+        <v>0.1621039659106423</v>
       </c>
       <c r="BZ4">
-        <v>0.2959326811225071</v>
+        <v>0.161656839982684</v>
       </c>
       <c r="CA4">
-        <v>0.2966612837333831</v>
+        <v>0.1591321365377322</v>
       </c>
       <c r="CB4">
-        <v>0.293847516509057</v>
+        <v>0.1485928518915579</v>
       </c>
       <c r="CC4">
-        <v>0.2983907863105519</v>
+        <v>0.1352713060201054</v>
       </c>
       <c r="CD4">
-        <v>0.3103426280917203</v>
+        <v>0.1235527784339022</v>
       </c>
       <c r="CE4">
-        <v>0.3256378596265089</v>
+        <v>0.1175802436280001</v>
       </c>
       <c r="CF4">
-        <v>0.3452366799055597</v>
+        <v>0.119246310813456</v>
       </c>
       <c r="CG4">
-        <v>0.356019434495105</v>
+        <v>0.1218856928803551</v>
       </c>
       <c r="CH4">
-        <v>0.3639847253549401</v>
+        <v>0.1250724524999576</v>
       </c>
       <c r="CI4">
-        <v>0.3694590502878816</v>
+        <v>0.1275917835509814</v>
       </c>
       <c r="CJ4">
-        <v>0.3728269229954633</v>
+        <v>0.129233903184381</v>
       </c>
       <c r="CK4">
-        <v>0.3784353302563783</v>
+        <v>0.1314997933373488</v>
       </c>
       <c r="CL4">
-        <v>0.3786327474097175</v>
+        <v>0.1318632347355964</v>
       </c>
       <c r="CM4">
-        <v>0.378115800707315</v>
+        <v>0.1321611151362379</v>
       </c>
       <c r="CN4">
-        <v>0.3771942209983082</v>
+        <v>0.1326998714408371</v>
       </c>
       <c r="CO4">
-        <v>0.375979534911064</v>
+        <v>0.1337230813026658</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -3481,275 +3484,275 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -3758,275 +3761,275 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -4036,274 +4039,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4.203255031099768E-09</v>
+        <v>4.906557804660801E-11</v>
       </c>
       <c r="E4">
-        <v>3.102841330266908E-08</v>
+        <v>4.16216820381134E-10</v>
       </c>
       <c r="F4">
-        <v>2.708884984510977E-07</v>
+        <v>4.106145159652354E-09</v>
       </c>
       <c r="G4">
-        <v>1.352974307280256E-06</v>
+        <v>2.282379375608379E-08</v>
       </c>
       <c r="H4">
-        <v>6.803312646567693E-06</v>
+        <v>1.260168579921685E-07</v>
       </c>
       <c r="I4">
-        <v>3.107317985802356E-05</v>
+        <v>6.246269210473271E-07</v>
       </c>
       <c r="J4">
-        <v>0.0001330544936656174</v>
+        <v>2.873621060766039E-06</v>
       </c>
       <c r="K4">
-        <v>0.0007772662200714099</v>
+        <v>1.788425024049504E-05</v>
       </c>
       <c r="L4">
-        <v>0.002226942513114066</v>
+        <v>5.42325482397343E-05</v>
       </c>
       <c r="M4">
-        <v>0.00910589377139942</v>
+        <v>0.000233883157552831</v>
       </c>
       <c r="N4">
-        <v>0.02114819025303667</v>
+        <v>0.0005748100358720474</v>
       </c>
       <c r="O4">
-        <v>0.039055444533949</v>
+        <v>0.001143432388159776</v>
       </c>
       <c r="P4">
-        <v>0.03801588740255948</v>
+        <v>0.001261751525440256</v>
       </c>
       <c r="Q4">
-        <v>0.06264982605433783</v>
+        <v>0.002605055510979647</v>
       </c>
       <c r="R4">
-        <v>0.07248733942382851</v>
+        <v>0.003996782742142963</v>
       </c>
       <c r="S4">
-        <v>0.02496408030347303</v>
+        <v>0.001353570146110726</v>
       </c>
       <c r="T4">
-        <v>0.02490143558013422</v>
+        <v>0.0007583286666218902</v>
       </c>
       <c r="U4">
-        <v>0.02628627890528421</v>
+        <v>0.0006093706714747893</v>
       </c>
       <c r="V4">
-        <v>0.02782338919196706</v>
+        <v>0.001004902997436153</v>
       </c>
       <c r="W4">
-        <v>0.02897348109719539</v>
+        <v>0.001459503937326731</v>
       </c>
       <c r="X4">
-        <v>0.03331926417108547</v>
+        <v>0.002261258084970408</v>
       </c>
       <c r="Y4">
-        <v>0.03569639436934787</v>
+        <v>0.003081894025107523</v>
       </c>
       <c r="Z4">
-        <v>0.03587306691629673</v>
+        <v>0.003630618618915182</v>
       </c>
       <c r="AA4">
-        <v>0.03541405840514258</v>
+        <v>0.004349211796697079</v>
       </c>
       <c r="AB4">
-        <v>0.03605571392085637</v>
+        <v>0.00685658619933842</v>
       </c>
       <c r="AC4">
-        <v>0.1699926810436631</v>
+        <v>0.05192619669514558</v>
       </c>
       <c r="AD4">
-        <v>0.1736902781594095</v>
+        <v>0.07308127497900356</v>
       </c>
       <c r="AE4">
-        <v>0.1772352621923507</v>
+        <v>0.09273298871567756</v>
       </c>
       <c r="AF4">
-        <v>0.1750660999417085</v>
+        <v>0.08994512674097327</v>
       </c>
       <c r="AG4">
-        <v>0.167119503871818</v>
+        <v>0.08249117202592575</v>
       </c>
       <c r="AH4">
-        <v>0.3304606829890229</v>
+        <v>0.1732392660045481</v>
       </c>
       <c r="AI4">
-        <v>0.3322840385728633</v>
+        <v>0.150328587239847</v>
       </c>
       <c r="AJ4">
-        <v>0.3431972747767834</v>
+        <v>0.1095125403106163</v>
       </c>
       <c r="AK4">
-        <v>0.3599690969736521</v>
+        <v>0.06972994653832851</v>
       </c>
       <c r="AL4">
-        <v>0.3750186199219582</v>
+        <v>0.05930565764501022</v>
       </c>
       <c r="AM4">
-        <v>0.3842952323514507</v>
+        <v>0.06282003637045092</v>
       </c>
       <c r="AN4">
-        <v>0.3894719081171824</v>
+        <v>0.06484238528619921</v>
       </c>
       <c r="AO4">
-        <v>0.3935792198057099</v>
+        <v>0.06674259102516246</v>
       </c>
       <c r="AP4">
-        <v>0.3964988154272767</v>
+        <v>0.0683473512235295</v>
       </c>
       <c r="AQ4">
-        <v>0.3973737824056871</v>
+        <v>0.06871017452981625</v>
       </c>
       <c r="AR4">
-        <v>0.3972327285788514</v>
+        <v>0.06854702742870923</v>
       </c>
       <c r="AS4">
-        <v>0.3969731713560494</v>
+        <v>0.06855635005069975</v>
       </c>
       <c r="AT4">
-        <v>0.3966034141472303</v>
+        <v>0.06868880362376371</v>
       </c>
       <c r="AU4">
-        <v>0.3961348154908945</v>
+        <v>0.06890910625623545</v>
       </c>
       <c r="AV4">
-        <v>0.3955192857061542</v>
+        <v>0.06934893280033361</v>
       </c>
       <c r="AW4">
-        <v>0.3949810646079534</v>
+        <v>0.07023282246742846</v>
       </c>
       <c r="AX4">
-        <v>0.340766252494955</v>
+        <v>0.06221377983509513</v>
       </c>
       <c r="AY4">
-        <v>0.3238835309376875</v>
+        <v>0.06272083404951194</v>
       </c>
       <c r="AZ4">
-        <v>0.2800835371700351</v>
+        <v>0.06359985511592624</v>
       </c>
       <c r="BA4">
-        <v>0.2324058563427643</v>
+        <v>0.0686192649497411</v>
       </c>
       <c r="BB4">
-        <v>0.2351859885494953</v>
+        <v>0.07737203882246202</v>
       </c>
       <c r="BC4">
-        <v>0.2274196674363838</v>
+        <v>0.07762476668578298</v>
       </c>
       <c r="BD4">
-        <v>0.209568120119893</v>
+        <v>0.07422475078149469</v>
       </c>
       <c r="BE4">
-        <v>0.1847603470622949</v>
+        <v>0.06853453428835216</v>
       </c>
       <c r="BF4">
-        <v>0.1839750617278286</v>
+        <v>0.05952018675125668</v>
       </c>
       <c r="BG4">
-        <v>0.2240532609238272</v>
+        <v>0.05322068813297531</v>
       </c>
       <c r="BH4">
-        <v>0.2595036342786761</v>
+        <v>0.0479513492533798</v>
       </c>
       <c r="BI4">
-        <v>0.2919403370483212</v>
+        <v>0.04886670956503034</v>
       </c>
       <c r="BJ4">
-        <v>0.3171253617575107</v>
+        <v>0.05284174916385006</v>
       </c>
       <c r="BK4">
-        <v>0.3354818869870387</v>
+        <v>0.05669907866594925</v>
       </c>
       <c r="BL4">
-        <v>0.352952536386942</v>
+        <v>0.06034708656417873</v>
       </c>
       <c r="BM4">
-        <v>0.360473249038129</v>
+        <v>0.06209262358424485</v>
       </c>
       <c r="BN4">
-        <v>0.3638295871988454</v>
+        <v>0.06286074671329288</v>
       </c>
       <c r="BO4">
-        <v>0.3644138865511061</v>
+        <v>0.06301862800828881</v>
       </c>
       <c r="BP4">
-        <v>0.3637847182671573</v>
+        <v>0.06303119237631215</v>
       </c>
       <c r="BQ4">
-        <v>0.3652806006534977</v>
+        <v>0.06357146790961456</v>
       </c>
       <c r="BR4">
-        <v>0.3639219936412089</v>
+        <v>0.06383474754382874</v>
       </c>
       <c r="BS4">
-        <v>0.3623302424222586</v>
+        <v>0.06440829677490623</v>
       </c>
       <c r="BT4">
-        <v>0.3600780005233715</v>
+        <v>0.06542915946694269</v>
       </c>
       <c r="BU4">
-        <v>0.3555608703693264</v>
+        <v>0.06694827696270228</v>
       </c>
       <c r="BV4">
-        <v>0.3487344073190211</v>
+        <v>0.06978170203180685</v>
       </c>
       <c r="BW4">
-        <v>0.3314553220268051</v>
+        <v>0.07338448072227743</v>
       </c>
       <c r="BX4">
-        <v>0.3132676667568985</v>
+        <v>0.07803631161637256</v>
       </c>
       <c r="BY4">
-        <v>0.3022920074646411</v>
+        <v>0.08105198295532114</v>
       </c>
       <c r="BZ4">
-        <v>0.2959321721322032</v>
+        <v>0.08082841999134197</v>
       </c>
       <c r="CA4">
-        <v>0.2966607546911235</v>
+        <v>0.07956606826886611</v>
       </c>
       <c r="CB4">
-        <v>0.2938469988843759</v>
+        <v>0.07429642594577897</v>
       </c>
       <c r="CC4">
-        <v>0.2983902993259767</v>
+        <v>0.06763565301005268</v>
       </c>
       <c r="CD4">
-        <v>0.3103421909149193</v>
+        <v>0.06177638921695108</v>
       </c>
       <c r="CE4">
-        <v>0.3256374824185178</v>
+        <v>0.05879012181400004</v>
       </c>
       <c r="CF4">
-        <v>0.3452363505410899</v>
+        <v>0.05962315540672803</v>
       </c>
       <c r="CG4">
-        <v>0.3560191557145895</v>
+        <v>0.06094284644017755</v>
       </c>
       <c r="CH4">
-        <v>0.3639844839525151</v>
+        <v>0.06253622624997882</v>
       </c>
       <c r="CI4">
-        <v>0.3694588337979506</v>
+        <v>0.06379589177549068</v>
       </c>
       <c r="CJ4">
-        <v>0.3728267202624823</v>
+        <v>0.06461695159219051</v>
       </c>
       <c r="CK4">
-        <v>0.3784351270111824</v>
+        <v>0.06574989666867438</v>
       </c>
       <c r="CL4">
-        <v>0.3786325400774298</v>
+        <v>0.06593161736779818</v>
       </c>
       <c r="CM4">
-        <v>0.3781155841113001</v>
+        <v>0.06608055756811898</v>
       </c>
       <c r="CN4">
-        <v>0.3771939922444982</v>
+        <v>0.06634993572041854</v>
       </c>
       <c r="CO4">
-        <v>0.3759792921285613</v>
+        <v>0.06686154065133289</v>
       </c>
     </row>
     <row r="5" spans="1:93">
